--- a/src/dataProvider/datapro.xlsx
+++ b/src/dataProvider/datapro.xlsx
@@ -30,9 +30,6 @@
     <t>Attempts</t>
   </si>
   <si>
-    <t>Riya</t>
-  </si>
-  <si>
     <t>Ankit</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Riyajaiswal</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,10 +395,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -409,10 +409,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>13</v>
